--- a/SkillsList.xlsx
+++ b/SkillsList.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0. Python\1. Flask\1. Resume Screening\1. Final\Resumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0. Python\1. Flask\1. Resume Screening\1. Final\ResumeScreeningv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="977">
   <si>
     <t>Skills</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Bash</t>
   </si>
   <si>
-    <t>BASIC</t>
-  </si>
-  <si>
     <t>Batch file</t>
   </si>
   <si>
@@ -537,15 +534,6 @@
     <t>FlagShip</t>
   </si>
   <si>
-    <t>Flavors</t>
-  </si>
-  <si>
-    <t>Flex</t>
-  </si>
-  <si>
-    <t>Flix</t>
-  </si>
-  <si>
     <t>FlooP</t>
   </si>
   <si>
@@ -555,9 +543,6 @@
     <t>FOCAL</t>
   </si>
   <si>
-    <t>FOCUS</t>
-  </si>
-  <si>
     <t>FOIL</t>
   </si>
   <si>
@@ -978,9 +963,6 @@
     <t>MARK-IV</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
     <t>MATLAB</t>
   </si>
   <si>
@@ -1329,18 +1311,9 @@
     <t>Plankalkül</t>
   </si>
   <si>
-    <t>Planner</t>
-  </si>
-  <si>
-    <t>PLEX</t>
-  </si>
-  <si>
     <t>PLEXIL</t>
   </si>
   <si>
-    <t>Plus</t>
-  </si>
-  <si>
     <t>POP-11</t>
   </si>
   <si>
@@ -1437,9 +1410,6 @@
     <t>Raku</t>
   </si>
   <si>
-    <t>RAPID</t>
-  </si>
-  <si>
     <t>Rapira</t>
   </si>
   <si>
@@ -1527,9 +1497,6 @@
     <t>Script.NET</t>
   </si>
   <si>
-    <t>Sed</t>
-  </si>
-  <si>
     <t>Seed7</t>
   </si>
   <si>
@@ -1569,15 +1536,9 @@
     <t>SISAL</t>
   </si>
   <si>
-    <t>SKILL</t>
-  </si>
-  <si>
     <t>SLIP</t>
   </si>
   <si>
-    <t>SMALL</t>
-  </si>
-  <si>
     <t>Smalltalk</t>
   </si>
   <si>
@@ -1680,9 +1641,6 @@
     <t>TADS</t>
   </si>
   <si>
-    <t>TAL</t>
-  </si>
-  <si>
     <t>Tcl</t>
   </si>
   <si>
@@ -1758,9 +1716,6 @@
     <t>Uniface</t>
   </si>
   <si>
-    <t>UNITY</t>
-  </si>
-  <si>
     <t>UnrealScript</t>
   </si>
   <si>
@@ -2568,9 +2523,6 @@
     <t>Spark</t>
   </si>
   <si>
-    <t>Spring Framework</t>
-  </si>
-  <si>
     <t>Spring Roo</t>
   </si>
   <si>
@@ -2995,12 +2947,15 @@
   </si>
   <si>
     <t>SAP</t>
+  </si>
+  <si>
+    <t>Aws</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3115,7 +3070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3147,9 +3102,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3181,6 +3137,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3357,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1010"/>
+  <dimension ref="A1:A994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
-      <selection activeCell="A1011" sqref="A1011"/>
+    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
+      <selection activeCell="A890" sqref="A890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,27 +4514,27 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -4692,27 +4649,27 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
@@ -6057,67 +6014,67 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
@@ -6432,197 +6389,197 @@
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>623</v>
+        <v>85</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>535</v>
+        <v>623</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>629</v>
+        <v>125</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>632</v>
+        <v>128</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>86</v>
+        <v>634</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>126</v>
+        <v>641</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>129</v>
+        <v>644</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
@@ -6707,82 +6664,82 @@
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
@@ -6947,82 +6904,82 @@
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>708</v>
+        <v>453</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>462</v>
+        <v>722</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
@@ -7182,177 +7139,177 @@
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>754</v>
+        <v>125</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>761</v>
+        <v>147</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>126</v>
+        <v>767</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>772</v>
+        <v>201</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>148</v>
+        <v>773</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>206</v>
+        <v>785</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
@@ -7682,87 +7639,87 @@
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>851</v>
+        <v>755</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
@@ -7797,622 +7754,542 @@
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>873</v>
+        <v>758</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>874</v>
+        <v>769</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>879</v>
+        <v>801</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>881</v>
+        <v>824</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>763</v>
+        <v>885</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>773</v>
+        <v>931</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>784</v>
+        <v>886</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>889</v>
+        <v>932</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>816</v>
+        <v>890</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>839</v>
+        <v>892</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>896</v>
+        <v>933</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>897</v>
+        <v>934</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>898</v>
+        <v>935</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>899</v>
+        <v>936</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>900</v>
+        <v>937</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>901</v>
+        <v>938</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>948</v>
+        <v>896</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>949</v>
+        <v>905</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>950</v>
+        <v>906</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>952</v>
+        <v>908</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>953</v>
+        <v>909</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>954</v>
+        <v>910</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>955</v>
+        <v>911</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
         <v>976</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
-        <v>991</v>
       </c>
     </row>
   </sheetData>
